--- a/Pull Request Here/Sense Of Depth For Tall Buildings - 3246956515/Sense Of Depth For Tall Buildings - 3246956515.xlsx
+++ b/Pull Request Here/Sense Of Depth For Tall Buildings - 3246956515/Sense Of Depth For Tall Buildings - 3246956515.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535142FF-D3AE-477D-9170-136C48F931FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ECCC79-3126-444D-A29D-13A6CEBF89D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,461 +67,463 @@
     <t>BackSideLayer_ToggleDesc_Undraw</t>
   </si>
   <si>
+    <t>Keyed+SenseOfDepth_GeneralSetting</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_GeneralSetting</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_SelectionSetting</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_SelectionSetting</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_SettingInitializeTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_SettingInitializeTip</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_ForDev</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_ForDev</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_AppliedLog</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_AppliedLog</t>
+  </si>
+  <si>
+    <t>Detail Output Log</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_AppliedLogTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_AppliedLogTip</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_OverColored</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_OverColored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyes BSL to Red </t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_OverColoredTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_OverColoredTip</t>
+  </si>
+  <si>
+    <t>Note: This is just for checking the layers. It is not recommended to turn it on during gameplay.</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_AllInvisible</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_AllInvisible</t>
+  </si>
+  <si>
+    <t>All BSL Invisible</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_AllInvisibleTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_AllInvisibleTip</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_AttachIcon</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_AttachIcon</t>
+  </si>
+  <si>
+    <t>Attaches Icon</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_AttachIconTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_AttachIconTip</t>
+  </si>
+  <si>
+    <t>Attaches an additional mark to the Architect icon for buildings where BSL supported.\nRequires game reboot to apply changes.</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_ShowAttachIcon</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_ShowAttachIcon</t>
+  </si>
+  <si>
+    <t>Show BSL Icon</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_ShowAttachIconTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_ShowAttachIconTip</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_InitialToggle</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_InitialToggle</t>
+  </si>
+  <si>
+    <t>Initially ON</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_InitialToggleTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_InitialToggleTip</t>
+  </si>
+  <si>
+    <t>When a BSL enabled building is first placed, it is shipped with BSL toggle turned on. This also applies to buildings that are automatically placed on the map.</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_ShowToggleButton</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_ShowToggleButton</t>
+  </si>
+  <si>
+    <t>Show BackSideLayer Toggle Button</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_ShowToggleButtonTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_ShowToggleButtonTip</t>
+  </si>
+  <si>
+    <t>Displays the drawing toggle button when selected a building that supports back side layers.</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_MechGestatorTopGraphicsFix</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_MechGestatorTopGraphicsFix</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_MechGestatorTopGraphicsFixTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_MechGestatorTopGraphicsFixTip</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_DefFixesPatchSubLabel</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_DefFixesPatchSubLabel</t>
+  </si>
+  <si>
+    <t>Def Fixes Patch: Requires reboot to apply setting changes.</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_ApplyDefsPatch</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_ApplyDefsPatch</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_ApplyDefsPatchTip</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_ApplyDefsPatchTip</t>
+  </si>
+  <si>
+    <t>Patch BSL supported buildings to ensure proper use BSL. Normally there is no need to turn it off. If you have a building that has problems due to these patches, please turn off this and report it to author. If [Detail Output Log] is turn on when lunch the game, you can see the details of the patched buildings.</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_Search</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_Search</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_Enabled</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_Enabled</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_Disabled</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_Disabled</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_DisplayName</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_DisplayName</t>
+  </si>
+  <si>
+    <t>Keyed+SenseOfDepth_ExcludeBySize</t>
+  </si>
+  <si>
+    <t>SenseOfDepth_ExcludeBySize</t>
+  </si>
+  <si>
+    <t>Keyed+SquareOne</t>
+  </si>
+  <si>
+    <t>SquareOne</t>
+  </si>
+  <si>
+    <t>Keyed+HeightOne</t>
+  </si>
+  <si>
+    <t>HeightOne</t>
+  </si>
+  <si>
+    <t>Keyed+AllDisable</t>
+  </si>
+  <si>
+    <t>AllDisable</t>
+  </si>
+  <si>
+    <t>Keyed+AllEnable</t>
+  </si>
+  <si>
+    <t>AllEnable</t>
+  </si>
+  <si>
+    <t>All Enable</t>
+  </si>
+  <si>
+    <t>Sense Of Depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Dev:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자용:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exclude By Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 x 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Disable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 허용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부적인 로그 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forces all "Back Side Layers" be undrawn. Note: It will not be reflected immediately.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outputs Log on startup.\nList of all BSL supported buildings, and buildings with def fixes patch applied.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset settings to initial values.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 페이지를 기본 값으로 모두 되돌립니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show additional attached icon.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toggle BSL drawing ON/OFF.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입체 효과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입체 효과 숨기기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입체 마크 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입체 마크 보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이어를 빨간색으로 염색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입체 효과 자동적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays Label Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection Settings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 입체 효과를 적용할 수 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>허용됨 보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해제됨 보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 이름으로 보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입체 효과 명령버튼 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix layer altitude of MechGestator lid part graphic.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mech Gestator Top Graphic Fix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply Def Fixes Patch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def 수정 패치 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean (한국어) [Translation]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 입체 효과가 그려지지 않도록 합니다.\n\n참고: 즉시 반영되지 않을 수 있습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기능은 입체 효과 여부를 확인하는 용도로만 사용됩니다.\n\n게임을 즐기는 중에는 켜지 않는 것이 좋습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물을 맵에 설치할 때,\n"세부 설정"에서 허용되고 있다면 자동으로 입체 효과를 적용합니다.\n\n이는 자연적으로 생성된 건물에도 적용됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 설정 (BSL = 입체 효과)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Settings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>BSL cannot currently be drawn.</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_GeneralSetting</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_GeneralSetting</t>
-  </si>
-  <si>
-    <t>General Settings</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_SelectionSetting</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_SelectionSetting</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_SettingInitializeTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_SettingInitializeTip</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_ForDev</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_ForDev</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_AppliedLog</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_AppliedLog</t>
-  </si>
-  <si>
-    <t>Detail Output Log</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_AppliedLogTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_AppliedLogTip</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_OverColored</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_OverColored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dyes BSL to Red </t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_OverColoredTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_OverColoredTip</t>
-  </si>
-  <si>
-    <t>Note: This is just for checking the layers. It is not recommended to turn it on during gameplay.</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_AllInvisible</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_AllInvisible</t>
-  </si>
-  <si>
-    <t>All BSL Invisible</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_AllInvisibleTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_AllInvisibleTip</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_AttachIcon</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_AttachIcon</t>
-  </si>
-  <si>
-    <t>Attaches Icon</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_AttachIconTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_AttachIconTip</t>
-  </si>
-  <si>
-    <t>Attaches an additional mark to the Architect icon for buildings where BSL supported.\nRequires game reboot to apply changes.</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_ShowAttachIcon</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_ShowAttachIcon</t>
-  </si>
-  <si>
-    <t>Show BSL Icon</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_ShowAttachIconTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_ShowAttachIconTip</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_InitialToggle</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_InitialToggle</t>
-  </si>
-  <si>
-    <t>Initially ON</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_InitialToggleTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_InitialToggleTip</t>
-  </si>
-  <si>
-    <t>When a BSL enabled building is first placed, it is shipped with BSL toggle turned on. This also applies to buildings that are automatically placed on the map.</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_ShowToggleButton</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_ShowToggleButton</t>
-  </si>
-  <si>
-    <t>Show BackSideLayer Toggle Button</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_ShowToggleButtonTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_ShowToggleButtonTip</t>
-  </si>
-  <si>
-    <t>Displays the drawing toggle button when selected a building that supports back side layers.</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_MechGestatorTopGraphicsFix</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_MechGestatorTopGraphicsFix</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_MechGestatorTopGraphicsFixTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_MechGestatorTopGraphicsFixTip</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_DefFixesPatchSubLabel</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_DefFixesPatchSubLabel</t>
-  </si>
-  <si>
-    <t>Def Fixes Patch: Requires reboot to apply setting changes.</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_ApplyDefsPatch</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_ApplyDefsPatch</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_ApplyDefsPatchTip</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_ApplyDefsPatchTip</t>
-  </si>
-  <si>
-    <t>Patch BSL supported buildings to ensure proper use BSL. Normally there is no need to turn it off. If you have a building that has problems due to these patches, please turn off this and report it to author. If [Detail Output Log] is turn on when lunch the game, you can see the details of the patched buildings.</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_Search</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_Search</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_Enabled</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_Enabled</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_Disabled</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_Disabled</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_DisplayName</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_DisplayName</t>
-  </si>
-  <si>
-    <t>Keyed+SenseOfDepth_ExcludeBySize</t>
-  </si>
-  <si>
-    <t>SenseOfDepth_ExcludeBySize</t>
-  </si>
-  <si>
-    <t>Keyed+SquareOne</t>
-  </si>
-  <si>
-    <t>SquareOne</t>
-  </si>
-  <si>
-    <t>Keyed+HeightOne</t>
-  </si>
-  <si>
-    <t>HeightOne</t>
-  </si>
-  <si>
-    <t>Keyed+AllDisable</t>
-  </si>
-  <si>
-    <t>AllDisable</t>
-  </si>
-  <si>
-    <t>Keyed+AllEnable</t>
-  </si>
-  <si>
-    <t>AllEnable</t>
-  </si>
-  <si>
-    <t>All Enable</t>
-  </si>
-  <si>
-    <t>Sense Of Depth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>For Dev:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발자용:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exclude By Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 x 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Disable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두 허용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부적인 로그 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forces all "Back Side Layers" be undrawn. Note: It will not be reflected immediately.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outputs Log on startup.\nList of all BSL supported buildings, and buildings with def fixes patch applied.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset settings to initial values.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 페이지를 기본 값으로 모두 되돌립니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show additional attached icon.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가된 마크를 플레이어가 볼 수 있도록 표시합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toggle BSL drawing ON/OFF.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입체 효과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입체 효과 숨기기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입체 마크 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입체 마크 보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이어를 빨간색으로 염색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입체 효과 자동적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두 해제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필터링으로 전부 해제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1x1) 크기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(세로1) 크기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Displays Label Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selection Settings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 입체 효과를 적용할 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 건물만 입체 효과를 개별적으로 적용하거나 끕니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disabled</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>허용됨 보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해제됨 보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인게임 이름으로 보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입체 효과 명령버튼 활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix layer altitude of MechGestator lid part graphic.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mech Gestator Top Graphic Fix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Def 수정 패치: 이 체크를 적용하려면 림월드를 재시작하세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apply Def Fixes Patch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Def 수정 패치 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean (한국어) [Translation]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 입체 효과가 그려지지 않도록 합니다.\n\n참고: 즉시 반영되지 않을 수 있습니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 기능은 입체 효과 여부를 확인하는 용도로만 사용됩니다.\n\n게임을 즐기는 중에는 켜지 않는 것이 좋습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 모드가 입체 효과를 지원하도록 패치한 목록을 로그에 출력합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구상 탭을 열었을 때,\n입체 효과가 허용되는 건물 아이콘에 작은 마크를 추가합니다.\n\n변경 사항이 즉시 적용되지 않는다면 림월드를 재시작하세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물을 맵에 설치할 때,\n"세부 설정"에서 허용되고 있다면 자동으로 입체 효과를 적용합니다.\n\n이는 자연적으로 생성된 건물에도 적용됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"세부 설정"에서 허용하였다면,\n해당 건물마다 입체 효과를 개별적으로 적용하거나 끌 수 있는 명령 버튼을 추가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드 배양기 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메카노이드 배양기의 뚜껑 그래픽 레이어를 수정합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모드를 제대로 사용하기 위해 입체 효과를 지원하는 건물에 패치를 적용합니다. 이 패치로 인해 치명적인 오류가 발생하는 건물이 있으면 이 기능을 끄고 모드 제작자에게 알려주세요. "세부적인 로그 출력"이 켜져 있으면 패치된 건물의 목록을 확인할 수 있습니다.\n\n일반적으로 이 기능을 끌 필요가 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 설정 (BSL = 입체 효과)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 모드가 입체 효과를 지원하도록 호환성 패치한 목록을 로그에 출력합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구상 탭을 열었을 때,\n입체 효과가 허용되는 건물 아이콘에 작은 식별 마크를 추가합니다.\n\n변경 사항이 즉시 적용되지 않는다면 림월드를 재시작하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가된 식별 마크를 플레이어가 볼 수 있도록 표시합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"세부 설정"에서 허용되어 있는,\n건물마다 입체 효과를 각각 따로 적용하거나 끌 수 있는 명령 버튼을 추가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 건물만 입체 효과를 따로 적용하거나 끕니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입체 효과를 위해 메카노이드 배양기의 뚜껑 레이어를 패치합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메카노이드 배양기 레이어 패치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def 수정 패치: 적용하려면 림월드를 재시작하세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드를 제대로 사용하기 위해 입체 효과를 지원하는 건물에 패치를 적용합니다. 이 패치로 인해 치명적인 오류가 발생하는 건물이 있으면 이 기능을 끄고 모드 제작자에게 알려주세요. "세부적인 로그 출력"이 켜져 있으면 패치된 건물의 목록을 확인할 수 있습니다.\n\n대부분의 상황에서 이 기능은 끌 필요가 전혀 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1x1) 해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(세로1) 해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기로 해제하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -928,10 +930,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -948,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -962,10 +964,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -979,554 +981,554 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
